--- a/clasificacion.xlsx
+++ b/clasificacion.xlsx
@@ -505,28 +505,28 @@
         <v>13</v>
       </c>
       <c r="C2" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1.0</v>
       </c>
       <c r="E2" s="2">
         <v>0.0</v>
       </c>
-      <c r="F2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.0</v>
+      <c r="F2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1.0</v>
       </c>
       <c r="K2" s="2">
         <v>0.0</v>
@@ -534,8 +534,8 @@
       <c r="L2" s="2">
         <v>0.0</v>
       </c>
-      <c r="M2" s="2">
-        <v>0.0</v>
+      <c r="M2" s="4">
+        <v>3.0</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1">
@@ -545,26 +545,26 @@
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2">
-        <v>0.0</v>
+      <c r="C3" s="4">
+        <v>2.0</v>
       </c>
       <c r="D3" s="2">
         <v>0.0</v>
       </c>
-      <c r="E3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.0</v>
+      <c r="E3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>-4.0</v>
       </c>
       <c r="J3" s="2">
         <v>0.0</v>
@@ -586,11 +586,11 @@
       <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.0</v>
+      <c r="C4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2.0</v>
       </c>
       <c r="E4" s="2">
         <v>0.0</v>
@@ -598,26 +598,26 @@
       <c r="F4" s="2">
         <v>0.0</v>
       </c>
-      <c r="G4" s="2">
-        <v>0.0</v>
+      <c r="G4" s="4">
+        <v>3.0</v>
       </c>
       <c r="H4" s="2">
         <v>0.0</v>
       </c>
-      <c r="I4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.0</v>
+      <c r="I4" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1.0</v>
       </c>
       <c r="L4" s="2">
         <v>0.0</v>
       </c>
-      <c r="M4" s="2">
-        <v>0.0</v>
+      <c r="M4" s="4">
+        <v>7.0</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1">
@@ -627,26 +627,26 @@
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2">
-        <v>0.0</v>
+      <c r="C5" s="4">
+        <v>2.0</v>
       </c>
       <c r="D5" s="2">
         <v>0.0</v>
       </c>
-      <c r="E5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.0</v>
+      <c r="E5" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1.0</v>
       </c>
       <c r="G5" s="2">
         <v>0.0</v>
       </c>
-      <c r="H5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.0</v>
+      <c r="H5" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>-1.0</v>
       </c>
       <c r="J5" s="2">
         <v>0.0</v>
@@ -657,8 +657,8 @@
       <c r="L5" s="2">
         <v>0.0</v>
       </c>
-      <c r="M5" s="2">
-        <v>0.0</v>
+      <c r="M5" s="4">
+        <v>1.0</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1">
@@ -668,26 +668,26 @@
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.0</v>
+      <c r="C6" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.0</v>
       </c>
       <c r="E6" s="2">
         <v>0.0</v>
       </c>
-      <c r="F6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.0</v>
+      <c r="F6" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.0</v>
       </c>
       <c r="J6" s="2">
         <v>0.0</v>
@@ -695,11 +695,11 @@
       <c r="K6" s="2">
         <v>0.0</v>
       </c>
-      <c r="L6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.0</v>
+      <c r="L6" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>5.0</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1">
@@ -709,29 +709,29 @@
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.0</v>
+      <c r="C7" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1.0</v>
       </c>
       <c r="F7" s="2">
         <v>0.0</v>
       </c>
-      <c r="G7" s="2">
-        <v>0.0</v>
+      <c r="G7" s="4">
+        <v>1.0</v>
       </c>
       <c r="H7" s="2">
         <v>0.0</v>
       </c>
-      <c r="I7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.0</v>
+      <c r="I7" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1.0</v>
       </c>
       <c r="K7" s="2">
         <v>0.0</v>
@@ -739,8 +739,8 @@
       <c r="L7" s="2">
         <v>0.0</v>
       </c>
-      <c r="M7" s="2">
-        <v>0.0</v>
+      <c r="M7" s="4">
+        <v>4.0</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1">
@@ -750,29 +750,29 @@
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.0</v>
+      <c r="C8" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.0</v>
       </c>
       <c r="E8" s="2">
         <v>0.0</v>
       </c>
-      <c r="F8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.0</v>
+      <c r="F8" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1.0</v>
       </c>
       <c r="K8" s="2">
         <v>0.0</v>
@@ -780,8 +780,8 @@
       <c r="L8" s="2">
         <v>0.0</v>
       </c>
-      <c r="M8" s="2">
-        <v>0.0</v>
+      <c r="M8" s="4">
+        <v>3.0</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1">
@@ -791,29 +791,29 @@
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.0</v>
+      <c r="C9" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0</v>
       </c>
       <c r="E9" s="2">
         <v>0.0</v>
       </c>
-      <c r="F9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.0</v>
+      <c r="F9" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1.0</v>
       </c>
       <c r="K9" s="2">
         <v>0.0</v>
@@ -821,8 +821,8 @@
       <c r="L9" s="2">
         <v>0.0</v>
       </c>
-      <c r="M9" s="2">
-        <v>0.0</v>
+      <c r="M9" s="4">
+        <v>3.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/clasificacion.xlsx
+++ b/clasificacion.xlsx
@@ -505,11 +505,11 @@
         <v>13</v>
       </c>
       <c r="C2" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D2" s="4">
         <v>2.0</v>
       </c>
-      <c r="D2" s="4">
-        <v>1.0</v>
-      </c>
       <c r="E2" s="2">
         <v>0.0</v>
       </c>
@@ -526,7 +526,7 @@
         <v>0.0</v>
       </c>
       <c r="J2" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K2" s="2">
         <v>0.0</v>
@@ -535,7 +535,7 @@
         <v>0.0</v>
       </c>
       <c r="M2" s="4">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1">
@@ -546,7 +546,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D3" s="2">
         <v>0.0</v>
@@ -555,16 +555,16 @@
         <v>0.0</v>
       </c>
       <c r="F3" s="4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G3" s="4">
         <v>1.0</v>
       </c>
       <c r="H3" s="4">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="I3" s="4">
-        <v>-4.0</v>
+        <v>-5.0</v>
       </c>
       <c r="J3" s="2">
         <v>0.0</v>
@@ -587,29 +587,29 @@
         <v>15</v>
       </c>
       <c r="C4" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="J4" s="4">
         <v>2.0</v>
       </c>
-      <c r="D4" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1.0</v>
-      </c>
       <c r="K4" s="4">
         <v>1.0</v>
       </c>
@@ -617,7 +617,7 @@
         <v>0.0</v>
       </c>
       <c r="M4" s="4">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1">
@@ -628,25 +628,25 @@
         <v>16</v>
       </c>
       <c r="C5" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="4">
         <v>2.0</v>
       </c>
-      <c r="D5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1.0</v>
-      </c>
       <c r="G5" s="2">
         <v>0.0</v>
       </c>
       <c r="H5" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="I5" s="4">
-        <v>-1.0</v>
+        <v>-2.0</v>
       </c>
       <c r="J5" s="2">
         <v>0.0</v>
@@ -669,11 +669,11 @@
         <v>17</v>
       </c>
       <c r="C6" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D6" s="4">
         <v>2.0</v>
       </c>
-      <c r="D6" s="4">
-        <v>1.0</v>
-      </c>
       <c r="E6" s="2">
         <v>0.0</v>
       </c>
@@ -681,13 +681,13 @@
         <v>1.0</v>
       </c>
       <c r="G6" s="4">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="H6" s="4">
         <v>2.0</v>
       </c>
       <c r="I6" s="4">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="J6" s="2">
         <v>0.0</v>
@@ -696,10 +696,10 @@
         <v>0.0</v>
       </c>
       <c r="L6" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M6" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1">
@@ -710,7 +710,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D7" s="4">
         <v>1.0</v>
@@ -718,14 +718,14 @@
       <c r="E7" s="4">
         <v>1.0</v>
       </c>
-      <c r="F7" s="2">
-        <v>0.0</v>
+      <c r="F7" s="4">
+        <v>1.0</v>
       </c>
       <c r="G7" s="4">
         <v>1.0</v>
       </c>
-      <c r="H7" s="2">
-        <v>0.0</v>
+      <c r="H7" s="4">
+        <v>1.0</v>
       </c>
       <c r="I7" s="4">
         <v>1.0</v>
@@ -751,25 +751,25 @@
         <v>19</v>
       </c>
       <c r="C8" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="4">
         <v>2.0</v>
       </c>
-      <c r="D8" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1.0</v>
-      </c>
       <c r="G8" s="4">
         <v>1.0</v>
       </c>
       <c r="H8" s="4">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="I8" s="4">
-        <v>0.0</v>
+        <v>-3.0</v>
       </c>
       <c r="J8" s="4">
         <v>1.0</v>
@@ -792,11 +792,11 @@
         <v>20</v>
       </c>
       <c r="C9" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D9" s="4">
         <v>2.0</v>
       </c>
-      <c r="D9" s="4">
-        <v>1.0</v>
-      </c>
       <c r="E9" s="2">
         <v>0.0</v>
       </c>
@@ -804,16 +804,16 @@
         <v>1.0</v>
       </c>
       <c r="G9" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H9" s="4">
         <v>1.0</v>
       </c>
       <c r="I9" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J9" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K9" s="2">
         <v>0.0</v>
@@ -822,7 +822,7 @@
         <v>0.0</v>
       </c>
       <c r="M9" s="4">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/clasificacion.xlsx
+++ b/clasificacion.xlsx
@@ -3,10 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Clasificación" sheetId="1" r:id="rId5"/>
+    <sheet state="visible" name="Clasificación" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="8kYd9c34y67cxc4C3zQulLxts+amGt/zVX0fryMGD5c="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -90,7 +95,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,21 +125,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -144,7 +142,7 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
       <font/>
       <fill>
@@ -182,29 +180,12 @@
       </fill>
       <border/>
     </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF356854"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF356854"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF356854"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF356854"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="4" pivot="0" name="Clasificación-style">
+    <tableStyle count="3" pivot="0" name="Clasificación-style">
       <tableStyleElement dxfId="1" type="headerRow"/>
       <tableStyleElement dxfId="2" type="firstRowStripe"/>
       <tableStyleElement dxfId="3" type="secondRowStripe"/>
-      <tableStyleElement dxfId="4" size="0" type="wholeTable"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -214,12 +195,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:M9" displayName="Tabla_1" name="Tabla_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:M9" displayName="Table_1" name="Table_1" id="1">
   <tableColumns count="13">
     <tableColumn name="Pos" id="1"/>
     <tableColumn name="Jugador" id="2"/>
@@ -453,7 +430,6 @@
     <col customWidth="1" min="5" max="11" width="12.57"/>
     <col customWidth="1" min="12" max="12" width="12.71"/>
     <col customWidth="1" min="13" max="13" width="13.86"/>
-    <col customWidth="1" min="14" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
@@ -501,32 +477,32 @@
       <c r="A2" s="2">
         <v>1.0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D2" s="3">
         <v>3.0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G2" s="3">
         <v>2.0</v>
       </c>
-      <c r="E2" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="H2" s="2">
         <v>1.0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="I2" s="3">
         <v>1.0</v>
       </c>
-      <c r="H2" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>2.0</v>
+      <c r="J2" s="3">
+        <v>3.0</v>
       </c>
       <c r="K2" s="2">
         <v>0.0</v>
@@ -534,63 +510,63 @@
       <c r="L2" s="2">
         <v>0.0</v>
       </c>
-      <c r="M2" s="4">
-        <v>6.0</v>
+      <c r="M2" s="3">
+        <v>9.0</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="2">
         <v>2.0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="2">
         <v>3.0</v>
       </c>
-      <c r="D3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="G3" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>-4.0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M3" s="3">
         <v>3.0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>-5.0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.0</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="2">
         <v>3.0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3.0</v>
+      <c r="C4" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.0</v>
       </c>
       <c r="E4" s="2">
         <v>0.0</v>
@@ -598,55 +574,55 @@
       <c r="F4" s="2">
         <v>0.0</v>
       </c>
-      <c r="G4" s="4">
-        <v>4.0</v>
+      <c r="G4" s="3">
+        <v>5.0</v>
       </c>
       <c r="H4" s="2">
         <v>0.0</v>
       </c>
-      <c r="I4" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="I4" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J4" s="3">
         <v>2.0</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="2">
         <v>1.0</v>
       </c>
       <c r="L4" s="2">
         <v>0.0</v>
       </c>
-      <c r="M4" s="4">
-        <v>10.0</v>
+      <c r="M4" s="3">
+        <v>13.0</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="2">
         <v>4.0</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="3">
         <v>3.0</v>
       </c>
-      <c r="D5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2.0</v>
-      </c>
       <c r="G5" s="2">
         <v>0.0</v>
       </c>
-      <c r="H5" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>-2.0</v>
+      <c r="H5" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>-3.0</v>
       </c>
       <c r="J5" s="2">
         <v>0.0</v>
@@ -657,7 +633,7 @@
       <c r="L5" s="2">
         <v>0.0</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -665,81 +641,81 @@
       <c r="A6" s="2">
         <v>5.0</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D6" s="3">
         <v>3.0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="H6" s="2">
         <v>2.0</v>
       </c>
-      <c r="E6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="I6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J6" s="3">
         <v>1.0</v>
       </c>
-      <c r="G6" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="K6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="2">
         <v>2.0</v>
       </c>
-      <c r="I6" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L6" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>10.0</v>
+      <c r="M6" s="3">
+        <v>13.0</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="2">
         <v>6.0</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C7" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D7" s="2">
         <v>1.0</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>1.0</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G7" s="2">
         <v>1.0</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>-1.0</v>
+      </c>
+      <c r="J7" s="2">
         <v>1.0</v>
       </c>
-      <c r="H7" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>1.0</v>
-      </c>
       <c r="K7" s="2">
         <v>0.0</v>
       </c>
       <c r="L7" s="2">
         <v>0.0</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="2">
         <v>4.0</v>
       </c>
     </row>
@@ -747,40 +723,40 @@
       <c r="A8" s="2">
         <v>7.0</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="3">
         <v>3.0</v>
       </c>
-      <c r="D8" s="4">
+      <c r="G8" s="2">
         <v>1.0</v>
       </c>
-      <c r="E8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="H8" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>-4.0</v>
+      </c>
+      <c r="J8" s="2">
         <v>1.0</v>
       </c>
-      <c r="H8" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>-3.0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>1.0</v>
-      </c>
       <c r="K8" s="2">
         <v>0.0</v>
       </c>
       <c r="L8" s="2">
         <v>0.0</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="2">
         <v>3.0</v>
       </c>
     </row>
@@ -788,40 +764,40 @@
       <c r="A9" s="2">
         <v>8.0</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="C9" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D9" s="2">
         <v>2.0</v>
       </c>
       <c r="E9" s="2">
         <v>0.0</v>
       </c>
-      <c r="F9" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="F9" s="3">
         <v>2.0</v>
       </c>
-      <c r="H9" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="G9" s="2">
         <v>2.0</v>
       </c>
+      <c r="H9" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2.0</v>
+      </c>
       <c r="K9" s="2">
         <v>0.0</v>
       </c>
       <c r="L9" s="2">
         <v>0.0</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="2">
         <v>6.0</v>
       </c>
     </row>

--- a/clasificacion.xlsx
+++ b/clasificacion.xlsx
@@ -481,10 +481,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D2" s="3">
         <v>4.0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>3.0</v>
       </c>
       <c r="E2" s="2">
         <v>0.0</v>
@@ -493,16 +493,16 @@
         <v>1.0</v>
       </c>
       <c r="G2" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H2" s="2">
         <v>1.0</v>
       </c>
       <c r="I2" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J2" s="3">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K2" s="2">
         <v>0.0</v>
@@ -511,7 +511,7 @@
         <v>0.0</v>
       </c>
       <c r="M2" s="3">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1">
@@ -522,7 +522,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="3">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D3" s="3">
         <v>1.0</v>
@@ -530,17 +530,17 @@
       <c r="E3" s="2">
         <v>0.0</v>
       </c>
-      <c r="F3" s="2">
-        <v>3.0</v>
+      <c r="F3" s="3">
+        <v>4.0</v>
       </c>
       <c r="G3" s="3">
         <v>2.0</v>
       </c>
-      <c r="H3" s="2">
-        <v>6.0</v>
+      <c r="H3" s="3">
+        <v>7.0</v>
       </c>
       <c r="I3" s="3">
-        <v>-4.0</v>
+        <v>-5.0</v>
       </c>
       <c r="J3" s="3">
         <v>1.0</v>
@@ -563,10 +563,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D4" s="3">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E4" s="2">
         <v>0.0</v>
@@ -575,16 +575,16 @@
         <v>0.0</v>
       </c>
       <c r="G4" s="3">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H4" s="2">
         <v>0.0</v>
       </c>
       <c r="I4" s="3">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="J4" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K4" s="2">
         <v>1.0</v>
@@ -593,7 +593,7 @@
         <v>0.0</v>
       </c>
       <c r="M4" s="3">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1">
@@ -604,7 +604,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D5" s="2">
         <v>0.0</v>
@@ -613,16 +613,16 @@
         <v>1.0</v>
       </c>
       <c r="F5" s="3">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G5" s="2">
         <v>0.0</v>
       </c>
       <c r="H5" s="3">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I5" s="3">
-        <v>-3.0</v>
+        <v>-4.0</v>
       </c>
       <c r="J5" s="2">
         <v>0.0</v>
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="3">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D6" s="3">
         <v>3.0</v>
@@ -653,17 +653,17 @@
       <c r="E6" s="2">
         <v>0.0</v>
       </c>
-      <c r="F6" s="2">
-        <v>1.0</v>
+      <c r="F6" s="3">
+        <v>2.0</v>
       </c>
       <c r="G6" s="3">
         <v>7.0</v>
       </c>
-      <c r="H6" s="2">
-        <v>2.0</v>
+      <c r="H6" s="3">
+        <v>3.0</v>
       </c>
       <c r="I6" s="3">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="J6" s="3">
         <v>1.0</v>
@@ -686,10 +686,10 @@
         <v>18</v>
       </c>
       <c r="C7" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.0</v>
       </c>
       <c r="E7" s="2">
         <v>1.0</v>
@@ -697,26 +697,26 @@
       <c r="F7" s="3">
         <v>2.0</v>
       </c>
-      <c r="G7" s="2">
-        <v>1.0</v>
+      <c r="G7" s="3">
+        <v>2.0</v>
       </c>
       <c r="H7" s="3">
         <v>2.0</v>
       </c>
       <c r="I7" s="3">
-        <v>-1.0</v>
-      </c>
-      <c r="J7" s="2">
         <v>1.0</v>
       </c>
+      <c r="J7" s="3">
+        <v>2.0</v>
+      </c>
       <c r="K7" s="2">
         <v>0.0</v>
       </c>
       <c r="L7" s="2">
         <v>0.0</v>
       </c>
-      <c r="M7" s="2">
-        <v>4.0</v>
+      <c r="M7" s="3">
+        <v>7.0</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1">
@@ -727,7 +727,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="3">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D8" s="2">
         <v>1.0</v>
@@ -736,16 +736,16 @@
         <v>0.0</v>
       </c>
       <c r="F8" s="3">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G8" s="2">
         <v>1.0</v>
       </c>
       <c r="H8" s="3">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="I8" s="3">
-        <v>-4.0</v>
+        <v>-5.0</v>
       </c>
       <c r="J8" s="2">
         <v>1.0</v>
@@ -768,10 +768,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3.0</v>
       </c>
       <c r="E9" s="2">
         <v>0.0</v>
@@ -779,17 +779,17 @@
       <c r="F9" s="3">
         <v>2.0</v>
       </c>
-      <c r="G9" s="2">
-        <v>2.0</v>
+      <c r="G9" s="3">
+        <v>3.0</v>
       </c>
       <c r="H9" s="3">
         <v>2.0</v>
       </c>
       <c r="I9" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3.0</v>
       </c>
       <c r="K9" s="2">
         <v>0.0</v>

--- a/clasificacion.xlsx
+++ b/clasificacion.xlsx
@@ -481,7 +481,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="3">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D2" s="3">
         <v>4.0</v>
@@ -489,17 +489,17 @@
       <c r="E2" s="2">
         <v>0.0</v>
       </c>
-      <c r="F2" s="2">
-        <v>1.0</v>
+      <c r="F2" s="3">
+        <v>2.0</v>
       </c>
       <c r="G2" s="3">
         <v>3.0</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="I2" s="3">
         <v>1.0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>2.0</v>
       </c>
       <c r="J2" s="3">
         <v>4.0</v>
@@ -522,10 +522,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="3">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D3" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E3" s="2">
         <v>0.0</v>
@@ -534,16 +534,16 @@
         <v>4.0</v>
       </c>
       <c r="G3" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H3" s="3">
         <v>7.0</v>
       </c>
       <c r="I3" s="3">
-        <v>-5.0</v>
+        <v>-4.0</v>
       </c>
       <c r="J3" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K3" s="2">
         <v>0.0</v>
@@ -552,7 +552,7 @@
         <v>0.0</v>
       </c>
       <c r="M3" s="3">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1">
@@ -563,28 +563,28 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="J4" s="3">
         <v>5.0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>3.0</v>
       </c>
       <c r="K4" s="2">
         <v>1.0</v>
@@ -593,7 +593,7 @@
         <v>0.0</v>
       </c>
       <c r="M4" s="3">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1">
@@ -604,7 +604,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D5" s="2">
         <v>0.0</v>
@@ -613,16 +613,16 @@
         <v>1.0</v>
       </c>
       <c r="F5" s="3">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G5" s="2">
         <v>0.0</v>
       </c>
       <c r="H5" s="3">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="I5" s="3">
-        <v>-4.0</v>
+        <v>-5.0</v>
       </c>
       <c r="J5" s="2">
         <v>0.0</v>
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="3">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D6" s="3">
         <v>3.0</v>
@@ -654,16 +654,16 @@
         <v>0.0</v>
       </c>
       <c r="F6" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G6" s="3">
         <v>7.0</v>
       </c>
       <c r="H6" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I6" s="3">
         <v>3.0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>4.0</v>
       </c>
       <c r="J6" s="3">
         <v>1.0</v>
@@ -686,7 +686,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="3">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D7" s="3">
         <v>2.0</v>
@@ -695,16 +695,16 @@
         <v>1.0</v>
       </c>
       <c r="F7" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G7" s="3">
         <v>2.0</v>
       </c>
       <c r="H7" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I7" s="3">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="J7" s="3">
         <v>2.0</v>
@@ -727,10 +727,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.0</v>
       </c>
       <c r="E8" s="2">
         <v>0.0</v>
@@ -738,17 +738,17 @@
       <c r="F8" s="3">
         <v>4.0</v>
       </c>
-      <c r="G8" s="2">
-        <v>1.0</v>
+      <c r="G8" s="3">
+        <v>2.0</v>
       </c>
       <c r="H8" s="3">
         <v>6.0</v>
       </c>
       <c r="I8" s="3">
-        <v>-5.0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1.0</v>
+        <v>-4.0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2.0</v>
       </c>
       <c r="K8" s="2">
         <v>0.0</v>
@@ -756,8 +756,8 @@
       <c r="L8" s="2">
         <v>0.0</v>
       </c>
-      <c r="M8" s="2">
-        <v>3.0</v>
+      <c r="M8" s="3">
+        <v>6.0</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1">
@@ -768,10 +768,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="3">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D9" s="3">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E9" s="2">
         <v>0.0</v>
@@ -780,16 +780,16 @@
         <v>2.0</v>
       </c>
       <c r="G9" s="3">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H9" s="3">
         <v>2.0</v>
       </c>
       <c r="I9" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J9" s="3">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K9" s="2">
         <v>0.0</v>
@@ -797,8 +797,8 @@
       <c r="L9" s="2">
         <v>0.0</v>
       </c>
-      <c r="M9" s="2">
-        <v>6.0</v>
+      <c r="M9" s="3">
+        <v>9.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/clasificacion.xlsx
+++ b/clasificacion.xlsx
@@ -493,13 +493,13 @@
         <v>2.0</v>
       </c>
       <c r="G2" s="3">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H2" s="3">
         <v>2.0</v>
       </c>
       <c r="I2" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J2" s="3">
         <v>4.0</v>
@@ -798,7 +798,7 @@
         <v>0.0</v>
       </c>
       <c r="M9" s="3">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/clasificacion.xlsx
+++ b/clasificacion.xlsx
@@ -481,10 +481,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="3">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D2" s="3">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E2" s="2">
         <v>0.0</v>
@@ -493,16 +493,16 @@
         <v>2.0</v>
       </c>
       <c r="G2" s="3">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H2" s="3">
         <v>2.0</v>
       </c>
       <c r="I2" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J2" s="3">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K2" s="2">
         <v>0.0</v>
@@ -511,7 +511,7 @@
         <v>0.0</v>
       </c>
       <c r="M2" s="3">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1">
@@ -522,10 +522,10 @@
         <v>14</v>
       </c>
       <c r="C3" s="3">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D3" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E3" s="2">
         <v>0.0</v>
@@ -534,16 +534,16 @@
         <v>4.0</v>
       </c>
       <c r="G3" s="3">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H3" s="3">
         <v>7.0</v>
       </c>
       <c r="I3" s="3">
-        <v>-4.0</v>
+        <v>-3.0</v>
       </c>
       <c r="J3" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K3" s="2">
         <v>0.0</v>
@@ -552,7 +552,7 @@
         <v>0.0</v>
       </c>
       <c r="M3" s="3">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1">
@@ -563,10 +563,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D4" s="3">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E4" s="2">
         <v>0.0</v>
@@ -575,25 +575,25 @@
         <v>0.0</v>
       </c>
       <c r="G4" s="3">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="H4" s="2">
         <v>0.0</v>
       </c>
       <c r="I4" s="3">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="J4" s="3">
         <v>5.0</v>
       </c>
-      <c r="K4" s="2">
-        <v>1.0</v>
+      <c r="K4" s="3">
+        <v>2.0</v>
       </c>
       <c r="L4" s="2">
         <v>0.0</v>
       </c>
       <c r="M4" s="3">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1">
@@ -604,7 +604,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D5" s="2">
         <v>0.0</v>
@@ -613,16 +613,16 @@
         <v>1.0</v>
       </c>
       <c r="F5" s="3">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G5" s="2">
         <v>0.0</v>
       </c>
       <c r="H5" s="3">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="I5" s="3">
-        <v>-5.0</v>
+        <v>-7.0</v>
       </c>
       <c r="J5" s="2">
         <v>0.0</v>
@@ -645,10 +645,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="3">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D6" s="3">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E6" s="2">
         <v>0.0</v>
@@ -657,16 +657,16 @@
         <v>3.0</v>
       </c>
       <c r="G6" s="3">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H6" s="3">
         <v>4.0</v>
       </c>
       <c r="I6" s="3">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="J6" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K6" s="2">
         <v>0.0</v>
@@ -675,7 +675,7 @@
         <v>2.0</v>
       </c>
       <c r="M6" s="3">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1">
@@ -686,7 +686,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="3">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D7" s="3">
         <v>2.0</v>
@@ -695,16 +695,16 @@
         <v>1.0</v>
       </c>
       <c r="F7" s="3">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G7" s="3">
         <v>2.0</v>
       </c>
       <c r="H7" s="3">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I7" s="3">
-        <v>-1.0</v>
+        <v>-2.0</v>
       </c>
       <c r="J7" s="3">
         <v>2.0</v>
@@ -727,7 +727,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="3">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D8" s="3">
         <v>2.0</v>
@@ -736,16 +736,16 @@
         <v>0.0</v>
       </c>
       <c r="F8" s="3">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G8" s="3">
         <v>2.0</v>
       </c>
       <c r="H8" s="3">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="I8" s="3">
-        <v>-4.0</v>
+        <v>-5.0</v>
       </c>
       <c r="J8" s="3">
         <v>2.0</v>
@@ -768,7 +768,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="3">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D9" s="3">
         <v>4.0</v>
@@ -777,16 +777,16 @@
         <v>0.0</v>
       </c>
       <c r="F9" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G9" s="3">
         <v>4.0</v>
       </c>
       <c r="H9" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="I9" s="3">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J9" s="3">
         <v>4.0</v>

--- a/clasificacion.xlsx
+++ b/clasificacion.xlsx
@@ -481,7 +481,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="3">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D2" s="3">
         <v>5.0</v>
@@ -490,16 +490,16 @@
         <v>0.0</v>
       </c>
       <c r="F2" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G2" s="3">
         <v>5.0</v>
       </c>
       <c r="H2" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I2" s="3">
         <v>2.0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>3.0</v>
       </c>
       <c r="J2" s="3">
         <v>5.0</v>
@@ -522,7 +522,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="3">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D3" s="3">
         <v>3.0</v>
@@ -531,16 +531,16 @@
         <v>0.0</v>
       </c>
       <c r="F3" s="3">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G3" s="3">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H3" s="3">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="I3" s="3">
-        <v>-3.0</v>
+        <v>-4.0</v>
       </c>
       <c r="J3" s="3">
         <v>3.0</v>
@@ -563,10 +563,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D4" s="3">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="E4" s="2">
         <v>0.0</v>
@@ -575,25 +575,25 @@
         <v>0.0</v>
       </c>
       <c r="G4" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1.0</v>
       </c>
       <c r="I4" s="3">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="J4" s="3">
         <v>5.0</v>
       </c>
       <c r="K4" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L4" s="2">
         <v>0.0</v>
       </c>
       <c r="M4" s="3">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1">
@@ -604,7 +604,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D5" s="2">
         <v>0.0</v>
@@ -613,16 +613,16 @@
         <v>1.0</v>
       </c>
       <c r="F5" s="3">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G5" s="2">
         <v>0.0</v>
       </c>
       <c r="H5" s="3">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="I5" s="3">
-        <v>-7.0</v>
+        <v>-8.0</v>
       </c>
       <c r="J5" s="2">
         <v>0.0</v>
@@ -645,10 +645,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="3">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D6" s="3">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="E6" s="2">
         <v>0.0</v>
@@ -657,16 +657,16 @@
         <v>3.0</v>
       </c>
       <c r="G6" s="3">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H6" s="3">
         <v>4.0</v>
       </c>
       <c r="I6" s="3">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="J6" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K6" s="2">
         <v>0.0</v>
@@ -675,7 +675,7 @@
         <v>2.0</v>
       </c>
       <c r="M6" s="3">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1">
@@ -686,10 +686,10 @@
         <v>18</v>
       </c>
       <c r="C7" s="3">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D7" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E7" s="2">
         <v>1.0</v>
@@ -698,16 +698,16 @@
         <v>4.0</v>
       </c>
       <c r="G7" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H7" s="3">
         <v>4.0</v>
       </c>
       <c r="I7" s="3">
-        <v>-2.0</v>
+        <v>-1.0</v>
       </c>
       <c r="J7" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K7" s="2">
         <v>0.0</v>
@@ -716,7 +716,7 @@
         <v>0.0</v>
       </c>
       <c r="M7" s="3">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1">
@@ -727,10 +727,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="3">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D8" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E8" s="2">
         <v>0.0</v>
@@ -739,16 +739,16 @@
         <v>5.0</v>
       </c>
       <c r="G8" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H8" s="3">
         <v>7.0</v>
       </c>
       <c r="I8" s="3">
-        <v>-5.0</v>
+        <v>-4.0</v>
       </c>
       <c r="J8" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K8" s="2">
         <v>0.0</v>
@@ -757,7 +757,7 @@
         <v>0.0</v>
       </c>
       <c r="M8" s="3">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1">
@@ -768,7 +768,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="3">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D9" s="3">
         <v>4.0</v>
@@ -777,16 +777,16 @@
         <v>0.0</v>
       </c>
       <c r="F9" s="3">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G9" s="3">
         <v>4.0</v>
       </c>
       <c r="H9" s="3">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I9" s="3">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J9" s="3">
         <v>4.0</v>

--- a/clasificacion.xlsx
+++ b/clasificacion.xlsx
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -95,6 +95,11 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -134,6 +139,9 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -481,37 +489,37 @@
         <v>13</v>
       </c>
       <c r="C2" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>5.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>7.0</v>
       </c>
       <c r="E2" s="2">
         <v>0.0</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>3.0</v>
       </c>
-      <c r="G2" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="G2" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I2" s="4">
         <v>3.0</v>
       </c>
-      <c r="I2" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.0</v>
+      <c r="J2" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1.0</v>
       </c>
       <c r="L2" s="2">
         <v>0.0</v>
       </c>
-      <c r="M2" s="3">
-        <v>15.0</v>
+      <c r="M2" s="4">
+        <v>22.0</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1">
@@ -521,38 +529,38 @@
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3.0</v>
+      <c r="C3" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5.0</v>
       </c>
       <c r="E3" s="2">
         <v>0.0</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>5.0</v>
       </c>
-      <c r="G3" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="G3" s="4">
         <v>9.0</v>
       </c>
-      <c r="I3" s="3">
-        <v>-4.0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>3.0</v>
+      <c r="H3" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>4.0</v>
       </c>
       <c r="K3" s="2">
         <v>0.0</v>
       </c>
-      <c r="L3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>9.0</v>
+      <c r="L3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>16.0</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1">
@@ -562,37 +570,37 @@
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="D4" s="4">
         <v>8.0</v>
       </c>
-      <c r="D4" s="3">
-        <v>8.0</v>
-      </c>
       <c r="E4" s="2">
         <v>0.0</v>
       </c>
-      <c r="F4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="F4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="J4" s="4">
         <v>5.0</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="4">
         <v>3.0</v>
       </c>
       <c r="L4" s="2">
         <v>0.0</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="4">
         <v>27.0</v>
       </c>
     </row>
@@ -603,26 +611,26 @@
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.0</v>
+      <c r="C5" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.0</v>
       </c>
       <c r="E5" s="2">
         <v>1.0</v>
       </c>
-      <c r="F5" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="F5" s="4">
         <v>8.0</v>
       </c>
-      <c r="I5" s="3">
-        <v>-8.0</v>
+      <c r="G5" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>-7.0</v>
       </c>
       <c r="J5" s="2">
         <v>0.0</v>
@@ -630,11 +638,11 @@
       <c r="K5" s="2">
         <v>0.0</v>
       </c>
-      <c r="L5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M5" s="2">
+      <c r="L5" s="4">
         <v>1.0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>6.0</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1">
@@ -644,38 +652,38 @@
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="H6" s="4">
         <v>8.0</v>
       </c>
-      <c r="D6" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="I6" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="J6" s="4">
         <v>3.0</v>
       </c>
-      <c r="G6" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="K6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="4">
         <v>3.0</v>
       </c>
-      <c r="K6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>19.0</v>
+      <c r="M6" s="4">
+        <v>24.0</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1">
@@ -685,38 +693,38 @@
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3.0</v>
+      <c r="C7" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4.0</v>
       </c>
       <c r="E7" s="2">
         <v>1.0</v>
       </c>
-      <c r="F7" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="F7" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="4">
         <v>3.0</v>
       </c>
-      <c r="H7" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>-1.0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>3.0</v>
-      </c>
       <c r="K7" s="2">
         <v>0.0</v>
       </c>
-      <c r="L7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>10.0</v>
+      <c r="L7" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>15.0</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1">
@@ -726,37 +734,37 @@
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="4">
         <v>8.0</v>
       </c>
-      <c r="D8" s="3">
+      <c r="G8" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>-7.0</v>
+      </c>
+      <c r="J8" s="4">
         <v>3.0</v>
       </c>
-      <c r="E8" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>-4.0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3.0</v>
-      </c>
       <c r="K8" s="2">
         <v>0.0</v>
       </c>
       <c r="L8" s="2">
         <v>0.0</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="4">
         <v>9.0</v>
       </c>
     </row>
@@ -767,29 +775,29 @@
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>4.0</v>
+      <c r="C9" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>5.0</v>
       </c>
       <c r="E9" s="2">
         <v>0.0</v>
       </c>
-      <c r="F9" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>4.0</v>
+      <c r="F9" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>5.0</v>
       </c>
       <c r="K9" s="2">
         <v>0.0</v>
@@ -797,8 +805,8 @@
       <c r="L9" s="2">
         <v>0.0</v>
       </c>
-      <c r="M9" s="3">
-        <v>12.0</v>
+      <c r="M9" s="4">
+        <v>15.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -1783,7 +1791,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="A2:A9 C2:M9">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="D2:M2 A2:A9 C3:M9">
       <formula1>AND(ISNUMBER(A2),(NOT(OR(NOT(ISERROR(DATEVALUE(A2))), AND(ISNUMBER(A2), LEFT(CELL("format", A2))="D")))))</formula1>
     </dataValidation>
   </dataValidations>

--- a/clasificacion.xlsx
+++ b/clasificacion.xlsx
@@ -489,10 +489,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="3">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="D2" s="4">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="E2" s="2">
         <v>0.0</v>
@@ -501,13 +501,13 @@
         <v>3.0</v>
       </c>
       <c r="G2" s="4">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="H2" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I2" s="4">
         <v>4.0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>3.0</v>
       </c>
       <c r="J2" s="4">
         <v>6.0</v>
@@ -515,11 +515,11 @@
       <c r="K2" s="4">
         <v>1.0</v>
       </c>
-      <c r="L2" s="2">
-        <v>0.0</v>
+      <c r="L2" s="4">
+        <v>1.0</v>
       </c>
       <c r="M2" s="4">
-        <v>22.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1">
@@ -530,7 +530,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="D3" s="4">
         <v>5.0</v>
@@ -539,16 +539,16 @@
         <v>0.0</v>
       </c>
       <c r="F3" s="4">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G3" s="4">
         <v>9.0</v>
       </c>
       <c r="H3" s="4">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="I3" s="4">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="J3" s="4">
         <v>4.0</v>
@@ -571,10 +571,10 @@
         <v>15</v>
       </c>
       <c r="C4" s="4">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="D4" s="4">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="E4" s="2">
         <v>0.0</v>
@@ -583,16 +583,16 @@
         <v>2.0</v>
       </c>
       <c r="G4" s="4">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H4" s="4">
         <v>6.0</v>
       </c>
       <c r="I4" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="J4" s="4">
         <v>6.0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>5.0</v>
       </c>
       <c r="K4" s="4">
         <v>3.0</v>
@@ -601,7 +601,7 @@
         <v>0.0</v>
       </c>
       <c r="M4" s="4">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1">
@@ -612,7 +612,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="4">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="D5" s="4">
         <v>1.0</v>
@@ -621,16 +621,16 @@
         <v>1.0</v>
       </c>
       <c r="F5" s="4">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="G5" s="4">
         <v>3.0</v>
       </c>
       <c r="H5" s="4">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="I5" s="4">
-        <v>-7.0</v>
+        <v>-8.0</v>
       </c>
       <c r="J5" s="2">
         <v>0.0</v>
@@ -653,10 +653,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="4">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="D6" s="4">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E6" s="2">
         <v>0.0</v>
@@ -665,16 +665,16 @@
         <v>4.0</v>
       </c>
       <c r="G6" s="4">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H6" s="4">
         <v>8.0</v>
       </c>
       <c r="I6" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="J6" s="4">
         <v>4.0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>3.0</v>
       </c>
       <c r="K6" s="2">
         <v>0.0</v>
@@ -683,7 +683,7 @@
         <v>3.0</v>
       </c>
       <c r="M6" s="4">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1">
@@ -694,7 +694,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="4">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="D7" s="4">
         <v>4.0</v>
@@ -703,16 +703,16 @@
         <v>1.0</v>
       </c>
       <c r="F7" s="4">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G7" s="4">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="H7" s="4">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="I7" s="4">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="J7" s="4">
         <v>3.0</v>
@@ -735,10 +735,10 @@
         <v>19</v>
       </c>
       <c r="C8" s="4">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="D8" s="4">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E8" s="2">
         <v>0.0</v>
@@ -747,16 +747,16 @@
         <v>8.0</v>
       </c>
       <c r="G8" s="4">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H8" s="4">
         <v>11.0</v>
       </c>
       <c r="I8" s="4">
-        <v>-7.0</v>
+        <v>-6.0</v>
       </c>
       <c r="J8" s="4">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K8" s="2">
         <v>0.0</v>
@@ -765,7 +765,7 @@
         <v>0.0</v>
       </c>
       <c r="M8" s="4">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1">
@@ -776,7 +776,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="4">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="D9" s="4">
         <v>5.0</v>
@@ -785,16 +785,16 @@
         <v>0.0</v>
       </c>
       <c r="F9" s="4">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G9" s="4">
         <v>5.0</v>
       </c>
       <c r="H9" s="4">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="I9" s="4">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="J9" s="4">
         <v>5.0</v>
